--- a/build/output/StructureDefinition-plannet-Practitioner.xlsx
+++ b/build/output/StructureDefinition-plannet-Practitioner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="515">
   <si>
     <t>Path</t>
   </si>
@@ -660,6 +660,9 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>./statusCode</t>
@@ -4311,7 +4314,7 @@
         <v>43</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>43</v>
@@ -4368,18 +4371,18 @@
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4402,19 +4405,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>43</v>
@@ -4463,7 +4466,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4478,13 +4481,13 @@
         <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -4492,7 +4495,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4601,7 +4604,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4712,7 +4715,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4738,16 +4741,16 @@
         <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4775,10 +4778,10 @@
         <v>145</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
@@ -4796,7 +4799,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4811,13 +4814,13 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4825,7 +4828,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4851,16 +4854,16 @@
         <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4909,7 +4912,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4924,10 +4927,10 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>43</v>
@@ -4938,11 +4941,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4964,13 +4967,13 @@
         <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5020,7 +5023,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -5035,13 +5038,13 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -5049,11 +5052,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5075,13 +5078,13 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5131,7 +5134,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5146,13 +5149,13 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5186,10 +5189,10 @@
         <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5240,7 +5243,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5255,13 +5258,13 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -5269,7 +5272,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5295,10 +5298,10 @@
         <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5349,7 +5352,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5364,10 +5367,10 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5378,7 +5381,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5404,14 +5407,14 @@
         <v>181</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5460,7 +5463,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5475,10 +5478,10 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>187</v>
@@ -5489,7 +5492,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5512,19 +5515,19 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5573,7 +5576,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5588,13 +5591,13 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -5602,7 +5605,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5711,7 +5714,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5822,10 +5825,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>43</v>
@@ -5847,13 +5850,13 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5933,10 +5936,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>43</v>
@@ -5958,13 +5961,13 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6044,7 +6047,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6070,10 +6073,10 @@
         <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6103,10 +6106,10 @@
         <v>145</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>43</v>
@@ -6124,7 +6127,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6133,19 +6136,19 @@
         <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>43</v>
@@ -6153,7 +6156,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6179,16 +6182,16 @@
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -6237,7 +6240,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6252,10 +6255,10 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>179</v>
@@ -6266,7 +6269,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6292,16 +6295,16 @@
         <v>71</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
@@ -6329,10 +6332,10 @@
         <v>145</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>43</v>
@@ -6350,7 +6353,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6365,13 +6368,13 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>43</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6402,16 +6405,16 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6461,7 +6464,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6490,7 +6493,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6516,10 +6519,10 @@
         <v>181</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6570,7 +6573,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6588,7 +6591,7 @@
         <v>94</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>187</v>
@@ -6599,7 +6602,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6622,19 +6625,19 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
@@ -6683,7 +6686,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6698,13 +6701,13 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6712,7 +6715,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6821,7 +6824,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6932,10 +6935,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>43</v>
@@ -6957,16 +6960,16 @@
         <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7045,7 +7048,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7071,16 +7074,16 @@
         <v>71</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -7093,7 +7096,7 @@
         <v>43</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>43</v>
@@ -7108,10 +7111,10 @@
         <v>145</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -7129,7 +7132,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7144,13 +7147,13 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>43</v>
@@ -7158,7 +7161,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7184,13 +7187,13 @@
         <v>71</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7204,7 +7207,7 @@
         <v>43</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>43</v>
@@ -7219,10 +7222,10 @@
         <v>145</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
@@ -7240,7 +7243,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7255,10 +7258,10 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>43</v>
@@ -7269,7 +7272,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7295,16 +7298,16 @@
         <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -7317,7 +7320,7 @@
         <v>43</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>43</v>
@@ -7353,7 +7356,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7368,10 +7371,10 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>43</v>
@@ -7382,7 +7385,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7408,10 +7411,10 @@
         <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7426,7 +7429,7 @@
         <v>43</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>43</v>
@@ -7462,7 +7465,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7477,13 +7480,13 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>43</v>
@@ -7491,11 +7494,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7517,10 +7520,10 @@
         <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7535,7 +7538,7 @@
         <v>43</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>43</v>
@@ -7571,7 +7574,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7586,13 +7589,13 @@
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>43</v>
@@ -7600,11 +7603,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7626,13 +7629,13 @@
         <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7646,7 +7649,7 @@
         <v>43</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>43</v>
@@ -7682,7 +7685,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7697,10 +7700,10 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>43</v>
@@ -7711,11 +7714,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7737,10 +7740,10 @@
         <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7791,7 +7794,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7806,13 +7809,13 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>43</v>
@@ -7820,11 +7823,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7846,10 +7849,10 @@
         <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7864,7 +7867,7 @@
         <v>43</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>43</v>
@@ -7900,7 +7903,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7915,13 +7918,13 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>43</v>
@@ -7929,7 +7932,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7955,13 +7958,13 @@
         <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8011,7 +8014,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -8026,13 +8029,13 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>43</v>
@@ -8040,7 +8043,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8066,14 +8069,14 @@
         <v>181</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8086,7 +8089,7 @@
         <v>43</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>43</v>
@@ -8122,7 +8125,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8137,10 +8140,10 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>187</v>
@@ -8151,7 +8154,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8177,14 +8180,14 @@
         <v>71</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -8212,10 +8215,10 @@
         <v>145</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>43</v>
@@ -8233,7 +8236,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8248,13 +8251,13 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>43</v>
@@ -8262,7 +8265,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8285,17 +8288,17 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8344,7 +8347,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8359,13 +8362,13 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>43</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8396,17 +8399,17 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8455,7 +8458,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8473,10 +8476,10 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>43</v>
@@ -8484,7 +8487,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8507,13 +8510,13 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8564,7 +8567,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8579,13 +8582,13 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
@@ -8593,7 +8596,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8702,7 +8705,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8809,10 +8812,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>43</v>
@@ -8834,13 +8837,13 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8920,11 +8923,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8946,10 +8949,10 @@
         <v>96</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>116</v>
@@ -9004,7 +9007,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9033,7 +9036,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9059,14 +9062,14 @@
         <v>120</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -9115,7 +9118,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9133,7 +9136,7 @@
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
@@ -9144,7 +9147,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9253,7 +9256,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9364,7 +9367,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9477,7 +9480,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9590,7 +9593,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9703,7 +9706,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9814,7 +9817,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9923,7 +9926,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10034,7 +10037,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10060,10 +10063,10 @@
         <v>151</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10090,13 +10093,13 @@
         <v>43</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>43</v>
@@ -10114,7 +10117,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>51</v>
@@ -10132,10 +10135,10 @@
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>43</v>
@@ -10143,7 +10146,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10169,14 +10172,14 @@
         <v>181</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -10225,7 +10228,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10243,10 +10246,10 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
@@ -10254,7 +10257,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10280,10 +10283,10 @@
         <v>189</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10334,7 +10337,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10352,7 +10355,7 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
@@ -10363,7 +10366,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10389,16 +10392,16 @@
         <v>151</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -10447,7 +10450,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10462,13 +10465,13 @@
         <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>43</v>

--- a/build/output/StructureDefinition-plannet-Practitioner.xlsx
+++ b/build/output/StructureDefinition-plannet-Practitioner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="514">
   <si>
     <t>Path</t>
   </si>
@@ -1480,14 +1480,11 @@
     <t>practitioner-qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/vhdir/StructureDefinition/practitioner-qualification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/practitioner-qualification}
 </t>
   </si>
   <si>
-    <t>Adds status, whereValid, history elements</t>
-  </si>
-  <si>
-    <t>Extension to practitioner.qualification adding the status of the qualification, where it is valid, and the history of the qualification</t>
+    <t>Optional Extensions Element</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -8843,7 +8840,7 @@
         <v>470</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>471</v>
+        <v>295</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8912,7 +8909,7 @@
         <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>43</v>
@@ -8923,11 +8920,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8949,10 +8946,10 @@
         <v>96</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>116</v>
@@ -9007,7 +9004,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9036,7 +9033,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9062,14 +9059,14 @@
         <v>120</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -9118,7 +9115,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9136,7 +9133,7 @@
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
@@ -9147,7 +9144,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9256,7 +9253,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9367,7 +9364,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9480,7 +9477,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9593,7 +9590,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9706,7 +9703,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9817,7 +9814,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9926,7 +9923,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10037,7 +10034,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10063,10 +10060,10 @@
         <v>151</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10093,14 +10090,14 @@
         <v>43</v>
       </c>
       <c r="W75" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="X75" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="X75" t="s" s="2">
+      <c r="Y75" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>43</v>
       </c>
@@ -10117,7 +10114,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>51</v>
@@ -10138,7 +10135,7 @@
         <v>464</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>43</v>
@@ -10146,7 +10143,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10172,14 +10169,14 @@
         <v>181</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -10228,7 +10225,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10246,10 +10243,10 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
@@ -10257,7 +10254,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10283,10 +10280,10 @@
         <v>189</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10337,7 +10334,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10355,7 +10352,7 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
@@ -10366,7 +10363,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10392,16 +10389,16 @@
         <v>151</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -10450,7 +10447,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10465,13 +10462,13 @@
         <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>43</v>
